--- a/URP/Forward Pass.xlsx
+++ b/URP/Forward Pass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,106 +43,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DrawObjectsPass</t>
+  </si>
+  <si>
+    <t>DrawObjectsPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawSkyboxPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvokeOnRenderObjectCallbackPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostProcessPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalBlitPass</t>
+  </si>
+  <si>
+    <t>渲染主光源阴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染法线和深度纹理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
+  </si>
+  <si>
+    <t>绘制天空盒</t>
+  </si>
+  <si>
+    <t>设置半透明物体接受阴影的Keyword</t>
+  </si>
+  <si>
+    <t>回调MonoBehaviour.OnRenderObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AfterPostProcessTexture--&gt;cameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneViewDepthCopyPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+  </si>
+  <si>
+    <t>Blit.shader</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyDepthPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraOpaqueTexture</t>
+  </si>
+  <si>
+    <t>TransparentSettingsPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPDefaultUnlit|UniversalForward|UniversalForwardOnly|LightweightForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthNormals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用特定标签的Pass绘制到屏幕缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_MainLightShadowmapTexture</t>
+  </si>
+  <si>
+    <t>复制深度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyColorPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制颜色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染到屏幕缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;_CameraDepthTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制深度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CapturePass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在Editor模式下生效，是录屏用的</t>
+  </si>
+  <si>
     <t>ColorGradingLutPass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DrawObjectsPass</t>
-  </si>
-  <si>
-    <t>DrawObjectsPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawSkyboxPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyDepthPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyColorPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransparentSettingsPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvokeOnRenderObjectCallbackPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostProcessPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CapturePass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinalBlitPass</t>
-  </si>
-  <si>
-    <t>渲染主光源阴影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainLightShadowmapTexture</t>
-  </si>
-  <si>
-    <t>渲染法线和深度纹理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name为“DepthNormals”的Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
+    <t>_InternalGradingLut--&gt;_InternalGradingLut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LutBuilderHdr.shader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_InternalGradingLut</t>
-  </si>
-  <si>
-    <t>绘制天空盒</t>
-  </si>
-  <si>
-    <t>设置半透明物体接受阴影的Keyword</t>
-  </si>
-  <si>
-    <t>回调MonoBehaviour.OnRenderObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_AfterPostProcessTexture--&gt;cameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneViewDepthCopyPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyDepth.shader</t>
-  </si>
-  <si>
-    <t>Blit.shader</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
+    <t>生成Lut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +211,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -186,8 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -206,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -248,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,19 +555,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,140 +581,194 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/URP/Forward Pass.xlsx
+++ b/URP/Forward Pass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,127 +73,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>绘制天空盒</t>
+  </si>
+  <si>
+    <t>设置半透明物体接受阴影的Keyword</t>
+  </si>
+  <si>
+    <t>回调MonoBehaviour.OnRenderObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AfterPostProcessTexture--&gt;cameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneViewDepthCopyPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+  </si>
+  <si>
+    <t>Blit.shader</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyDepthPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDepth.shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraOpaqueTexture</t>
+  </si>
+  <si>
+    <t>TransparentSettingsPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPDefaultUnlit|UniversalForward|UniversalForwardOnly|LightweightForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepthNormals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用特定标签的Pass绘制到屏幕缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_MainLightShadowmapTexture</t>
+  </si>
+  <si>
+    <t>复制深度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CopyColorPass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制颜色值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染到屏幕缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;_CameraDepthTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制深度信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CapturePass </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在Editor模式下生效，是录屏用的</t>
+  </si>
+  <si>
+    <t>ColorGradingLutPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_InternalGradingLut--&gt;_InternalGradingLut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LutBuilderHdr.shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成Lut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>_CameraDepthTexture和_CameraNormalsTexture</t>
-  </si>
-  <si>
-    <t>绘制天空盒</t>
-  </si>
-  <si>
-    <t>设置半透明物体接受阴影的Keyword</t>
-  </si>
-  <si>
-    <t>回调MonoBehaviour.OnRenderObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_AfterPostProcessTexture--&gt;cameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneViewDepthCopyPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyDepth.shader</t>
-  </si>
-  <si>
-    <t>Blit.shader</t>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyDepthPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CopyDepth.shader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraOpaqueTexture</t>
-  </si>
-  <si>
-    <t>TransparentSettingsPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRPDefaultUnlit|UniversalForward|UniversalForwardOnly|LightweightForward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepthNormals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用特定标签的Pass绘制到屏幕缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_MainLightShadowmapTexture</t>
-  </si>
-  <si>
-    <t>复制深度值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CopyColorPass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制颜色值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染到屏幕缓冲区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>_CameraDepthAttachment--&gt;CameraTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthAttachment--&gt;_CameraDepthTexture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制深度信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CapturePass </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只在Editor模式下生效，是录屏用的</t>
-  </si>
-  <si>
-    <t>ColorGradingLutPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_InternalGradingLut--&gt;_InternalGradingLut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LutBuilderHdr.shader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成Lut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -309,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,19 +556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.6328125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,18 +590,18 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,97 +609,97 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -706,64 +707,64 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/URP/Forward Pass.xlsx
+++ b/URP/Forward Pass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,19 +182,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生成Lut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CameraDepthAttachment--&gt;CameraTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LutBuilderHdr.shader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成Lut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthTexture和_CameraNormalsTexture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CameraDepthAttachment--&gt;CameraTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -310,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,18 +557,18 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,12 +596,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -612,24 +612,24 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -671,7 +671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -721,17 +721,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -739,7 +739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -753,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -764,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
